--- a/artfynd/A 60987-2025 artfynd.xlsx
+++ b/artfynd/A 60987-2025 artfynd.xlsx
@@ -3363,7 +3363,7 @@
         <v>130671341</v>
       </c>
       <c r="B24" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>130671365</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
         <v>130671343</v>
       </c>
       <c r="B28" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>130671357</v>
       </c>
       <c r="B29" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>130671332</v>
       </c>
       <c r="B30" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>130671363</v>
       </c>
       <c r="B31" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>130671360</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>130671359</v>
       </c>
       <c r="B33" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4450,32 +4450,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130671362</v>
+        <v>130671327</v>
       </c>
       <c r="B34" t="n">
-        <v>79239</v>
+        <v>91771</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>557271</v>
+        <v>556951</v>
       </c>
       <c r="R34" t="n">
-        <v>6710350</v>
+        <v>6710395</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4557,10 +4557,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130671356</v>
+        <v>130671362</v>
       </c>
       <c r="B35" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4592,10 +4592,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>557307</v>
+        <v>557271</v>
       </c>
       <c r="R35" t="n">
-        <v>6710299</v>
+        <v>6710350</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4664,32 +4664,32 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130671327</v>
+        <v>130671356</v>
       </c>
       <c r="B36" t="n">
-        <v>91767</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>556951</v>
+        <v>557307</v>
       </c>
       <c r="R36" t="n">
-        <v>6710395</v>
+        <v>6710299</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4774,7 +4774,7 @@
         <v>130671328</v>
       </c>
       <c r="B37" t="n">
-        <v>92175</v>
+        <v>92179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>130671345</v>
       </c>
       <c r="B38" t="n">
-        <v>81224</v>
+        <v>81228</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>130671344</v>
       </c>
       <c r="B39" t="n">
-        <v>92263</v>
+        <v>92267</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>130671342</v>
       </c>
       <c r="B40" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>130671338</v>
       </c>
       <c r="B41" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>130671339</v>
       </c>
       <c r="B42" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>130671336</v>
       </c>
       <c r="B43" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>130671361</v>
       </c>
       <c r="B44" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5647,10 +5647,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130671335</v>
+        <v>130671355</v>
       </c>
       <c r="B45" t="n">
-        <v>91825</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5658,21 +5658,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5682,10 +5682,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>557382</v>
+        <v>557310</v>
       </c>
       <c r="R45" t="n">
-        <v>6710266</v>
+        <v>6710293</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5754,10 +5754,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130671355</v>
+        <v>130671335</v>
       </c>
       <c r="B46" t="n">
-        <v>79239</v>
+        <v>91829</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5765,21 +5765,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5789,10 +5789,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>557310</v>
+        <v>557382</v>
       </c>
       <c r="R46" t="n">
-        <v>6710293</v>
+        <v>6710266</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5976,7 +5976,7 @@
         <v>130671337</v>
       </c>
       <c r="B48" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>130671334</v>
       </c>
       <c r="B49" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6197,10 +6197,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130671340</v>
+        <v>130671347</v>
       </c>
       <c r="B50" t="n">
-        <v>57877</v>
+        <v>91828</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6208,39 +6208,30 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>557079</v>
+        <v>557185</v>
       </c>
       <c r="R50" t="n">
-        <v>6710383</v>
+        <v>6710142</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6272,7 +6263,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6282,7 +6273,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6309,10 +6300,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130671347</v>
+        <v>130671340</v>
       </c>
       <c r="B51" t="n">
-        <v>91824</v>
+        <v>57881</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6320,30 +6311,39 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>557185</v>
+        <v>557079</v>
       </c>
       <c r="R51" t="n">
-        <v>6710142</v>
+        <v>6710383</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6412,10 +6412,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130671372</v>
+        <v>130671325</v>
       </c>
       <c r="B52" t="n">
-        <v>5177</v>
+        <v>5197</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6423,21 +6423,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100526</v>
+        <v>105930</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6452,10 +6452,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>557068</v>
+        <v>557029</v>
       </c>
       <c r="R52" t="n">
-        <v>6710403</v>
+        <v>6710414</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6527,7 +6527,7 @@
         <v>130671330</v>
       </c>
       <c r="B53" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6631,10 +6631,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130671325</v>
+        <v>130671372</v>
       </c>
       <c r="B54" t="n">
-        <v>5197</v>
+        <v>5177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6642,21 +6642,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>105930</v>
+        <v>100526</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6671,10 +6671,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>557029</v>
+        <v>557068</v>
       </c>
       <c r="R54" t="n">
-        <v>6710414</v>
+        <v>6710403</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6746,7 +6746,7 @@
         <v>130671358</v>
       </c>
       <c r="B55" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6850,45 +6850,50 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130671329</v>
+        <v>130671373</v>
       </c>
       <c r="B56" t="n">
-        <v>91804</v>
+        <v>5177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>557322</v>
+        <v>557193</v>
       </c>
       <c r="R56" t="n">
-        <v>6710273</v>
+        <v>6710075</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6920,7 +6925,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6930,7 +6935,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6957,50 +6962,45 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130671373</v>
+        <v>130671329</v>
       </c>
       <c r="B57" t="n">
-        <v>5177</v>
+        <v>91808</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>557193</v>
+        <v>557322</v>
       </c>
       <c r="R57" t="n">
-        <v>6710075</v>
+        <v>6710273</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7296,7 +7296,7 @@
         <v>130671331</v>
       </c>
       <c r="B60" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>

--- a/artfynd/A 60987-2025 artfynd.xlsx
+++ b/artfynd/A 60987-2025 artfynd.xlsx
@@ -3915,10 +3915,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130671357</v>
+        <v>130671332</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3926,21 +3926,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3950,10 +3950,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>557304</v>
+        <v>556970</v>
       </c>
       <c r="R29" t="n">
-        <v>6710306</v>
+        <v>6710400</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4022,10 +4022,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130671332</v>
+        <v>130671357</v>
       </c>
       <c r="B30" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4033,21 +4033,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4057,10 +4057,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>556970</v>
+        <v>557304</v>
       </c>
       <c r="R30" t="n">
-        <v>6710400</v>
+        <v>6710306</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -5428,10 +5428,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130671336</v>
+        <v>130671361</v>
       </c>
       <c r="B43" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5439,39 +5439,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>556993</v>
+        <v>557273</v>
       </c>
       <c r="R43" t="n">
-        <v>6710383</v>
+        <v>6710349</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5503,7 +5498,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5513,7 +5508,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5540,10 +5535,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130671361</v>
+        <v>130671336</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5551,34 +5546,39 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>557273</v>
+        <v>556993</v>
       </c>
       <c r="R44" t="n">
-        <v>6710349</v>
+        <v>6710383</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6197,10 +6197,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130671347</v>
+        <v>130671340</v>
       </c>
       <c r="B50" t="n">
-        <v>91828</v>
+        <v>57881</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6208,30 +6208,39 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>557185</v>
+        <v>557079</v>
       </c>
       <c r="R50" t="n">
-        <v>6710142</v>
+        <v>6710383</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6263,7 +6272,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6273,7 +6282,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6300,10 +6309,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130671340</v>
+        <v>130671347</v>
       </c>
       <c r="B51" t="n">
-        <v>57881</v>
+        <v>91828</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6311,39 +6320,30 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>557079</v>
+        <v>557185</v>
       </c>
       <c r="R51" t="n">
-        <v>6710383</v>
+        <v>6710142</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6850,50 +6850,45 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130671373</v>
+        <v>130671329</v>
       </c>
       <c r="B56" t="n">
-        <v>5177</v>
+        <v>91808</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>557193</v>
+        <v>557322</v>
       </c>
       <c r="R56" t="n">
-        <v>6710075</v>
+        <v>6710273</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6925,7 +6920,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6935,7 +6930,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6962,45 +6957,50 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130671329</v>
+        <v>130671373</v>
       </c>
       <c r="B57" t="n">
-        <v>91808</v>
+        <v>5177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>557322</v>
+        <v>557193</v>
       </c>
       <c r="R57" t="n">
-        <v>6710273</v>
+        <v>6710075</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD57" t="b">

--- a/artfynd/A 60987-2025 artfynd.xlsx
+++ b/artfynd/A 60987-2025 artfynd.xlsx
@@ -3915,10 +3915,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130671332</v>
+        <v>130671357</v>
       </c>
       <c r="B29" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3926,21 +3926,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3950,10 +3950,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>556970</v>
+        <v>557304</v>
       </c>
       <c r="R29" t="n">
-        <v>6710400</v>
+        <v>6710306</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4022,10 +4022,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130671357</v>
+        <v>130671332</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4033,21 +4033,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4057,10 +4057,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>557304</v>
+        <v>556970</v>
       </c>
       <c r="R30" t="n">
-        <v>6710306</v>
+        <v>6710400</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -6412,10 +6412,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130671325</v>
+        <v>130671372</v>
       </c>
       <c r="B52" t="n">
-        <v>5197</v>
+        <v>5177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6423,21 +6423,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>105930</v>
+        <v>100526</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6452,10 +6452,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>557029</v>
+        <v>557068</v>
       </c>
       <c r="R52" t="n">
-        <v>6710414</v>
+        <v>6710403</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6524,45 +6524,50 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130671330</v>
+        <v>130671325</v>
       </c>
       <c r="B53" t="n">
-        <v>91808</v>
+        <v>5197</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>105930</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>557102</v>
+        <v>557029</v>
       </c>
       <c r="R53" t="n">
-        <v>6710446</v>
+        <v>6710414</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6594,7 +6599,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6604,7 +6609,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6631,50 +6636,45 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130671372</v>
+        <v>130671330</v>
       </c>
       <c r="B54" t="n">
-        <v>5177</v>
+        <v>91808</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>557068</v>
+        <v>557102</v>
       </c>
       <c r="R54" t="n">
-        <v>6710403</v>
+        <v>6710446</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7293,45 +7293,50 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130671331</v>
+        <v>130671326</v>
       </c>
       <c r="B60" t="n">
-        <v>91808</v>
+        <v>5197</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1202</v>
+        <v>105930</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>556976</v>
+        <v>557081</v>
       </c>
       <c r="R60" t="n">
-        <v>6710393</v>
+        <v>6710301</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7363,7 +7368,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7373,7 +7378,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7400,50 +7405,45 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130671326</v>
+        <v>130671331</v>
       </c>
       <c r="B61" t="n">
-        <v>5197</v>
+        <v>91808</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>105930</v>
+        <v>1202</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>557081</v>
+        <v>556976</v>
       </c>
       <c r="R61" t="n">
-        <v>6710301</v>
+        <v>6710393</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD61" t="b">

--- a/artfynd/A 60987-2025 artfynd.xlsx
+++ b/artfynd/A 60987-2025 artfynd.xlsx
@@ -3915,10 +3915,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130671357</v>
+        <v>130671332</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3926,21 +3926,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3950,10 +3950,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>557304</v>
+        <v>556970</v>
       </c>
       <c r="R29" t="n">
-        <v>6710306</v>
+        <v>6710400</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4022,10 +4022,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130671332</v>
+        <v>130671357</v>
       </c>
       <c r="B30" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4033,21 +4033,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4057,10 +4057,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>556970</v>
+        <v>557304</v>
       </c>
       <c r="R30" t="n">
-        <v>6710400</v>
+        <v>6710306</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4664,32 +4664,32 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130671356</v>
+        <v>130671328</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>92179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>2062</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>557307</v>
+        <v>556973</v>
       </c>
       <c r="R36" t="n">
-        <v>6710299</v>
+        <v>6710401</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4771,32 +4771,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130671328</v>
+        <v>130671356</v>
       </c>
       <c r="B37" t="n">
-        <v>92179</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2062</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4806,10 +4806,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>556973</v>
+        <v>557307</v>
       </c>
       <c r="R37" t="n">
-        <v>6710401</v>
+        <v>6710299</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5973,10 +5973,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130671337</v>
+        <v>130671334</v>
       </c>
       <c r="B48" t="n">
-        <v>57881</v>
+        <v>58043</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5984,27 +5984,27 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>upprörd, varnande</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6013,10 +6013,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>557203</v>
+        <v>557212</v>
       </c>
       <c r="R48" t="n">
-        <v>6710208</v>
+        <v>6710081</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6085,10 +6085,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130671334</v>
+        <v>130671337</v>
       </c>
       <c r="B49" t="n">
-        <v>58043</v>
+        <v>57881</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6096,27 +6096,27 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>upprörd, varnande</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6125,10 +6125,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>557212</v>
+        <v>557203</v>
       </c>
       <c r="R49" t="n">
-        <v>6710081</v>
+        <v>6710208</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6197,10 +6197,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130671340</v>
+        <v>130671347</v>
       </c>
       <c r="B50" t="n">
-        <v>57881</v>
+        <v>91828</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6208,39 +6208,30 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>557079</v>
+        <v>557185</v>
       </c>
       <c r="R50" t="n">
-        <v>6710383</v>
+        <v>6710142</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6272,7 +6263,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6282,7 +6273,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>10:21</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6309,10 +6300,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130671347</v>
+        <v>130671340</v>
       </c>
       <c r="B51" t="n">
-        <v>91828</v>
+        <v>57881</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6320,30 +6311,39 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>557185</v>
+        <v>557079</v>
       </c>
       <c r="R51" t="n">
-        <v>6710142</v>
+        <v>6710383</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>10:21</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6412,50 +6412,45 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130671372</v>
+        <v>130671330</v>
       </c>
       <c r="B52" t="n">
-        <v>5177</v>
+        <v>91808</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>557068</v>
+        <v>557102</v>
       </c>
       <c r="R52" t="n">
-        <v>6710403</v>
+        <v>6710446</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6487,7 +6482,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6497,7 +6492,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6524,10 +6519,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130671325</v>
+        <v>130671372</v>
       </c>
       <c r="B53" t="n">
-        <v>5197</v>
+        <v>5177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6535,21 +6530,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>105930</v>
+        <v>100526</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6564,10 +6559,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>557029</v>
+        <v>557068</v>
       </c>
       <c r="R53" t="n">
-        <v>6710414</v>
+        <v>6710403</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6599,7 +6594,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6609,7 +6604,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6636,45 +6631,50 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130671330</v>
+        <v>130671325</v>
       </c>
       <c r="B54" t="n">
-        <v>91808</v>
+        <v>5197</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>105930</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>557102</v>
+        <v>557029</v>
       </c>
       <c r="R54" t="n">
-        <v>6710446</v>
+        <v>6710414</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -7293,50 +7293,45 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130671326</v>
+        <v>130671331</v>
       </c>
       <c r="B60" t="n">
-        <v>5197</v>
+        <v>91808</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>105930</v>
+        <v>1202</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>557081</v>
+        <v>556976</v>
       </c>
       <c r="R60" t="n">
-        <v>6710301</v>
+        <v>6710393</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7368,7 +7363,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7378,7 +7373,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7405,45 +7400,50 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130671331</v>
+        <v>130671326</v>
       </c>
       <c r="B61" t="n">
-        <v>91808</v>
+        <v>5197</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1202</v>
+        <v>105930</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>556976</v>
+        <v>557081</v>
       </c>
       <c r="R61" t="n">
-        <v>6710393</v>
+        <v>6710301</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AD61" t="b">

--- a/artfynd/A 60987-2025 artfynd.xlsx
+++ b/artfynd/A 60987-2025 artfynd.xlsx
@@ -4129,7 +4129,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130671363</v>
+        <v>130671359</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -4164,10 +4164,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>557265</v>
+        <v>557278</v>
       </c>
       <c r="R31" t="n">
-        <v>6710358</v>
+        <v>6710338</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4343,7 +4343,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130671359</v>
+        <v>130671363</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4378,10 +4378,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>557278</v>
+        <v>557265</v>
       </c>
       <c r="R33" t="n">
-        <v>6710338</v>
+        <v>6710358</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4450,32 +4450,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130671327</v>
+        <v>130671362</v>
       </c>
       <c r="B34" t="n">
-        <v>91771</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>556951</v>
+        <v>557271</v>
       </c>
       <c r="R34" t="n">
-        <v>6710395</v>
+        <v>6710350</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4557,32 +4557,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130671362</v>
+        <v>130671328</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>92179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>2062</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4592,10 +4592,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>557271</v>
+        <v>556973</v>
       </c>
       <c r="R35" t="n">
-        <v>6710350</v>
+        <v>6710401</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4664,32 +4664,32 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130671328</v>
+        <v>130671356</v>
       </c>
       <c r="B36" t="n">
-        <v>92179</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2062</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>556973</v>
+        <v>557307</v>
       </c>
       <c r="R36" t="n">
-        <v>6710401</v>
+        <v>6710299</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4771,32 +4771,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130671356</v>
+        <v>130671327</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>91771</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4806,10 +4806,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>557307</v>
+        <v>556951</v>
       </c>
       <c r="R37" t="n">
-        <v>6710299</v>
+        <v>6710395</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4985,45 +4985,50 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130671344</v>
+        <v>130671338</v>
       </c>
       <c r="B39" t="n">
-        <v>92267</v>
+        <v>57881</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1209</v>
+        <v>100049</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>556959</v>
+        <v>557146</v>
       </c>
       <c r="R39" t="n">
-        <v>6710396</v>
+        <v>6710445</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5055,7 +5060,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5065,7 +5070,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5092,7 +5097,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130671342</v>
+        <v>130671339</v>
       </c>
       <c r="B40" t="n">
         <v>57881</v>
@@ -5123,7 +5128,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5132,10 +5137,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>557118</v>
+        <v>557178</v>
       </c>
       <c r="R40" t="n">
-        <v>6710289</v>
+        <v>6710135</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5167,7 +5172,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5177,7 +5182,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5204,7 +5209,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130671338</v>
+        <v>130671342</v>
       </c>
       <c r="B41" t="n">
         <v>57881</v>
@@ -5235,7 +5240,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>gammalt bo</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5244,10 +5249,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>557146</v>
+        <v>557118</v>
       </c>
       <c r="R41" t="n">
-        <v>6710445</v>
+        <v>6710289</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5279,7 +5284,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5289,7 +5294,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5316,50 +5321,45 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130671339</v>
+        <v>130671344</v>
       </c>
       <c r="B42" t="n">
-        <v>57881</v>
+        <v>92267</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100049</v>
+        <v>1209</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>557178</v>
+        <v>556959</v>
       </c>
       <c r="R42" t="n">
-        <v>6710135</v>
+        <v>6710396</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5428,10 +5428,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130671361</v>
+        <v>130671336</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5439,34 +5439,39 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>557273</v>
+        <v>556993</v>
       </c>
       <c r="R43" t="n">
-        <v>6710349</v>
+        <v>6710383</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5498,7 +5503,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5508,7 +5513,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5535,10 +5540,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130671336</v>
+        <v>130671361</v>
       </c>
       <c r="B44" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5546,39 +5551,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>556993</v>
+        <v>557273</v>
       </c>
       <c r="R44" t="n">
-        <v>6710383</v>
+        <v>6710349</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5647,10 +5647,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130671355</v>
+        <v>130671335</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5658,21 +5658,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5682,10 +5682,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>557310</v>
+        <v>557382</v>
       </c>
       <c r="R45" t="n">
-        <v>6710293</v>
+        <v>6710266</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5754,10 +5754,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130671335</v>
+        <v>130671355</v>
       </c>
       <c r="B46" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5765,21 +5765,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5789,10 +5789,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>557382</v>
+        <v>557310</v>
       </c>
       <c r="R46" t="n">
-        <v>6710266</v>
+        <v>6710293</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5973,10 +5973,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>130671334</v>
+        <v>130671337</v>
       </c>
       <c r="B48" t="n">
-        <v>58043</v>
+        <v>57881</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5984,27 +5984,27 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>upprörd, varnande</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6013,10 +6013,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>557212</v>
+        <v>557203</v>
       </c>
       <c r="R48" t="n">
-        <v>6710081</v>
+        <v>6710208</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:32</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6085,10 +6085,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>130671337</v>
+        <v>130671334</v>
       </c>
       <c r="B49" t="n">
-        <v>57881</v>
+        <v>58043</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6096,27 +6096,27 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>upprörd, varnande</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6125,10 +6125,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>557203</v>
+        <v>557212</v>
       </c>
       <c r="R49" t="n">
-        <v>6710208</v>
+        <v>6710081</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6412,45 +6412,50 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130671330</v>
+        <v>130671325</v>
       </c>
       <c r="B52" t="n">
-        <v>91808</v>
+        <v>5197</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1202</v>
+        <v>105930</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>557102</v>
+        <v>557029</v>
       </c>
       <c r="R52" t="n">
-        <v>6710446</v>
+        <v>6710414</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6482,7 +6487,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6492,7 +6497,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6519,50 +6524,45 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130671372</v>
+        <v>130671330</v>
       </c>
       <c r="B53" t="n">
-        <v>5177</v>
+        <v>91808</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>557068</v>
+        <v>557102</v>
       </c>
       <c r="R53" t="n">
-        <v>6710403</v>
+        <v>6710446</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6631,10 +6631,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130671325</v>
+        <v>130671372</v>
       </c>
       <c r="B54" t="n">
-        <v>5197</v>
+        <v>5177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6642,21 +6642,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>105930</v>
+        <v>100526</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6671,10 +6671,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>557029</v>
+        <v>557068</v>
       </c>
       <c r="R54" t="n">
-        <v>6710414</v>
+        <v>6710403</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:48</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6743,45 +6743,50 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130671358</v>
+        <v>130671373</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>5177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>557300</v>
+        <v>557193</v>
       </c>
       <c r="R55" t="n">
-        <v>6710292</v>
+        <v>6710075</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6813,7 +6818,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6823,7 +6828,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6957,50 +6962,45 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130671373</v>
+        <v>130671358</v>
       </c>
       <c r="B57" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>557193</v>
+        <v>557300</v>
       </c>
       <c r="R57" t="n">
-        <v>6710075</v>
+        <v>6710292</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AD57" t="b">

--- a/artfynd/A 60987-2025 artfynd.xlsx
+++ b/artfynd/A 60987-2025 artfynd.xlsx
@@ -3915,10 +3915,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130671332</v>
+        <v>130671357</v>
       </c>
       <c r="B29" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3926,21 +3926,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3950,10 +3950,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>556970</v>
+        <v>557304</v>
       </c>
       <c r="R29" t="n">
-        <v>6710400</v>
+        <v>6710306</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>09:53</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4022,10 +4022,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130671357</v>
+        <v>130671332</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4033,21 +4033,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4057,10 +4057,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>557304</v>
+        <v>556970</v>
       </c>
       <c r="R30" t="n">
-        <v>6710306</v>
+        <v>6710400</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4129,7 +4129,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130671359</v>
+        <v>130671363</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -4164,10 +4164,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>557278</v>
+        <v>557265</v>
       </c>
       <c r="R31" t="n">
-        <v>6710338</v>
+        <v>6710358</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4343,7 +4343,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130671363</v>
+        <v>130671359</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4378,10 +4378,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>557265</v>
+        <v>557278</v>
       </c>
       <c r="R33" t="n">
-        <v>6710358</v>
+        <v>6710338</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4450,32 +4450,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130671362</v>
+        <v>130671327</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>91771</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>557271</v>
+        <v>556951</v>
       </c>
       <c r="R34" t="n">
-        <v>6710350</v>
+        <v>6710395</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4557,32 +4557,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130671328</v>
+        <v>130671362</v>
       </c>
       <c r="B35" t="n">
-        <v>92179</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2062</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4592,10 +4592,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>556973</v>
+        <v>557271</v>
       </c>
       <c r="R35" t="n">
-        <v>6710401</v>
+        <v>6710350</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:06</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4771,32 +4771,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130671327</v>
+        <v>130671328</v>
       </c>
       <c r="B37" t="n">
-        <v>91771</v>
+        <v>92179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5447</v>
+        <v>2062</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4806,10 +4806,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>556951</v>
+        <v>556973</v>
       </c>
       <c r="R37" t="n">
-        <v>6710395</v>
+        <v>6710401</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4985,7 +4985,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130671338</v>
+        <v>130671342</v>
       </c>
       <c r="B39" t="n">
         <v>57881</v>
@@ -5016,7 +5016,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>gammalt bo</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5025,10 +5025,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>557146</v>
+        <v>557118</v>
       </c>
       <c r="R39" t="n">
-        <v>6710445</v>
+        <v>6710289</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5097,7 +5097,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130671339</v>
+        <v>130671338</v>
       </c>
       <c r="B40" t="n">
         <v>57881</v>
@@ -5137,10 +5137,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>557178</v>
+        <v>557146</v>
       </c>
       <c r="R40" t="n">
-        <v>6710135</v>
+        <v>6710445</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5209,7 +5209,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130671342</v>
+        <v>130671339</v>
       </c>
       <c r="B41" t="n">
         <v>57881</v>
@@ -5240,7 +5240,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5249,10 +5249,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>557118</v>
+        <v>557178</v>
       </c>
       <c r="R41" t="n">
-        <v>6710289</v>
+        <v>6710135</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5428,10 +5428,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130671336</v>
+        <v>130671361</v>
       </c>
       <c r="B43" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5439,39 +5439,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>556993</v>
+        <v>557273</v>
       </c>
       <c r="R43" t="n">
-        <v>6710383</v>
+        <v>6710349</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5503,7 +5498,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5513,7 +5508,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5540,10 +5535,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130671361</v>
+        <v>130671336</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5551,34 +5546,39 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>557273</v>
+        <v>556993</v>
       </c>
       <c r="R44" t="n">
-        <v>6710349</v>
+        <v>6710383</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5647,10 +5647,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130671335</v>
+        <v>130671355</v>
       </c>
       <c r="B45" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5658,21 +5658,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5682,10 +5682,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>557382</v>
+        <v>557310</v>
       </c>
       <c r="R45" t="n">
-        <v>6710266</v>
+        <v>6710293</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5754,10 +5754,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130671355</v>
+        <v>130671335</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5765,21 +5765,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5789,10 +5789,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>557310</v>
+        <v>557382</v>
       </c>
       <c r="R46" t="n">
-        <v>6710293</v>
+        <v>6710266</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6412,50 +6412,45 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130671325</v>
+        <v>130671330</v>
       </c>
       <c r="B52" t="n">
-        <v>5197</v>
+        <v>91808</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>105930</v>
+        <v>1202</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>557029</v>
+        <v>557102</v>
       </c>
       <c r="R52" t="n">
-        <v>6710414</v>
+        <v>6710446</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6487,7 +6482,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6497,7 +6492,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6524,45 +6519,50 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130671330</v>
+        <v>130671325</v>
       </c>
       <c r="B53" t="n">
-        <v>91808</v>
+        <v>5197</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>105930</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>557102</v>
+        <v>557029</v>
       </c>
       <c r="R53" t="n">
-        <v>6710446</v>
+        <v>6710414</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6743,50 +6743,45 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130671373</v>
+        <v>130671358</v>
       </c>
       <c r="B55" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>557193</v>
+        <v>557300</v>
       </c>
       <c r="R55" t="n">
-        <v>6710075</v>
+        <v>6710292</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6818,7 +6813,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6828,7 +6823,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6855,45 +6850,50 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130671329</v>
+        <v>130671373</v>
       </c>
       <c r="B56" t="n">
-        <v>91808</v>
+        <v>5177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Högåsberget, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>557322</v>
+        <v>557193</v>
       </c>
       <c r="R56" t="n">
-        <v>6710273</v>
+        <v>6710075</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6962,10 +6962,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130671358</v>
+        <v>130671329</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6973,21 +6973,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6997,10 +6997,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>557300</v>
+        <v>557322</v>
       </c>
       <c r="R57" t="n">
-        <v>6710292</v>
+        <v>6710273</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD57" t="b">

--- a/artfynd/A 60987-2025 artfynd.xlsx
+++ b/artfynd/A 60987-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY61"/>
+  <dimension ref="A1:AY64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7510,6 +7510,315 @@
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>131134870</v>
+      </c>
+      <c r="B62" t="n">
+        <v>56748</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>205998</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Nordfladdermus</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Eptesicus nilssonii</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(A.Keyserling &amp; Blasius, 1839)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>autobox</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Högåsen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>557180</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6710045</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR62" t="inlineStr"/>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Emmy Ransgart</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Via Emmy Ransgart</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>131134868</v>
+      </c>
+      <c r="B63" t="n">
+        <v>56755</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>205992</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Vattenfladdermus</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Myotis daubentonii</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Kuhl, 1817)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>autobox</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Högåsen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>557180</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6710045</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR63" t="inlineStr"/>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Emmy Ransgart</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Via Emmy Ransgart</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>131134867</v>
+      </c>
+      <c r="B64" t="n">
+        <v>56769</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>206002</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Brunlångöra</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Plecotus auritus</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>autobox</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Högåsen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>557180</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6710045</v>
+      </c>
+      <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Emmy Ransgart</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Via Emmy Ransgart</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
